--- a/Sincro/Multicriteria-Dec.xlsx
+++ b/Sincro/Multicriteria-Dec.xlsx
@@ -944,16 +944,16 @@
         <v>5.5</v>
       </c>
       <c r="BE2">
-        <v>43.75</v>
+        <v>44.25</v>
       </c>
       <c r="BF2">
-        <v>125</v>
+        <v>132.5</v>
       </c>
       <c r="BG2">
-        <v>174.25</v>
+        <v>182.25</v>
       </c>
       <c r="BH2">
-        <v>55.75</v>
+        <v>65.75</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="BE3">
-        <v>111.5</v>
+        <v>135.25</v>
       </c>
       <c r="BF3">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="BG3">
-        <v>172</v>
+        <v>210.25</v>
       </c>
       <c r="BH3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BI3">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>4</v>
       </c>
       <c r="BE5">
-        <v>158</v>
+        <v>176.5</v>
       </c>
       <c r="BF5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BG5">
-        <v>188</v>
+        <v>208.5</v>
       </c>
       <c r="BH5">
         <v>23</v>
@@ -1684,13 +1684,13 @@
         <v>12</v>
       </c>
       <c r="BE6">
-        <v>189.5</v>
+        <v>192</v>
       </c>
       <c r="BF6">
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>201.5</v>
+        <v>204</v>
       </c>
       <c r="BH6">
         <v>15</v>
@@ -1869,13 +1869,13 @@
         <v>9</v>
       </c>
       <c r="BE7">
-        <v>31.25</v>
+        <v>32.25</v>
       </c>
       <c r="BF7">
         <v>0</v>
       </c>
       <c r="BG7">
-        <v>40.25</v>
+        <v>41.25</v>
       </c>
       <c r="BH7">
         <v>0</v>
